--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value869.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value869.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.16762445558386</v>
+        <v>2.173520803451538</v>
       </c>
       <c r="B1">
-        <v>2.593011857195441</v>
+        <v>3.058849096298218</v>
       </c>
       <c r="C1">
-        <v>4.05266571441793</v>
+        <v>2.632047653198242</v>
       </c>
       <c r="D1">
-        <v>2.721900343570091</v>
+        <v>2.160658597946167</v>
       </c>
       <c r="E1">
-        <v>1.156094140225792</v>
+        <v>1.454070329666138</v>
       </c>
     </row>
   </sheetData>
